--- a/wild_reports/tr0330t006_wild_report.xlsx
+++ b/wild_reports/tr0330t006_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,7 +544,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -575,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -593,7 +597,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -606,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -624,7 +632,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -642,7 +650,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -693,7 +705,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -726,7 +738,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -744,7 +756,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -757,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -795,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -828,7 +844,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -846,7 +862,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -859,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -877,7 +897,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -895,7 +915,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -908,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -926,7 +950,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -944,7 +968,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -957,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -975,7 +1003,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -993,7 +1021,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1006,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1024,7 +1056,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1042,7 +1074,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1055,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1093,7 +1129,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1126,7 +1162,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1144,7 +1180,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1157,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1195,7 +1235,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1228,7 +1268,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1246,7 +1286,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1259,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1277,7 +1321,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1295,7 +1339,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1308,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1326,7 +1374,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1344,7 +1392,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1357,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1395,7 +1447,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1448,7 +1500,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1481,7 +1533,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1499,7 +1551,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1512,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1530,7 +1586,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1548,7 +1604,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1561,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1579,7 +1639,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1597,7 +1657,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1610,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1628,7 +1692,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1646,7 +1710,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1659,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1677,7 +1745,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1695,7 +1763,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1708,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1746,7 +1818,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1779,7 +1851,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1797,7 +1869,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1810,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -1828,7 +1904,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1846,7 +1922,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1859,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1877,7 +1957,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1895,7 +1975,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1908,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -1946,7 +2030,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>MARTEN</t>
+          <t>Marten</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1979,7 +2063,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1997,7 +2081,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2010,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2028,7 +2116,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2046,7 +2134,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2059,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2077,7 +2169,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2095,7 +2187,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2108,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
@@ -2126,7 +2222,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2144,7 +2240,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2157,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2195,7 +2295,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>FISHER</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2248,7 +2348,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>FISHER</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2301,7 +2401,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -2334,7 +2434,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2352,7 +2452,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2365,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2383,7 +2487,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2401,7 +2505,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2414,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2432,7 +2540,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2450,7 +2558,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2463,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2481,7 +2593,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2499,7 +2611,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2512,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2646,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2548,7 +2664,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2561,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2579,7 +2699,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2597,7 +2717,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2610,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2648,7 +2772,7 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -2681,7 +2805,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2699,7 +2823,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2712,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2730,7 +2858,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2748,7 +2876,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2761,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -2779,7 +2911,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2797,7 +2929,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2810,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -2848,7 +2984,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -2881,7 +3017,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -2899,7 +3035,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2912,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
@@ -2950,7 +3090,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -3003,7 +3143,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -3036,7 +3176,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3054,7 +3194,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -3067,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3105,7 +3249,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -3138,7 +3282,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -3156,7 +3300,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -3169,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
@@ -3187,7 +3335,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -3205,7 +3353,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -3218,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>

--- a/wild_reports/tr0330t006_wild_report.xlsx
+++ b/wild_reports/tr0330t006_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,11 +544,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -561,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -579,7 +575,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +593,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -614,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -632,7 +624,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -650,11 +642,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -667,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -738,7 +726,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -756,11 +744,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -773,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -844,7 +828,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -862,11 +846,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -879,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -897,7 +877,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -915,11 +895,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -932,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -950,7 +926,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -968,11 +944,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -985,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -1003,7 +975,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1021,11 +993,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1038,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1056,7 +1024,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1074,11 +1042,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1091,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1162,7 +1126,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1180,11 +1144,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1197,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1268,7 +1228,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1286,11 +1246,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1303,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1277,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1339,11 +1295,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1356,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1374,7 +1326,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1392,11 +1344,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1409,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1533,7 +1481,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1551,11 +1499,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1568,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1586,7 +1530,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1604,11 +1548,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1621,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1639,7 +1579,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1657,11 +1597,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1674,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1692,7 +1628,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1710,11 +1646,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1727,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1745,7 +1677,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1763,11 +1695,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1780,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1851,7 +1779,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1869,11 +1797,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1886,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -1904,7 +1828,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1922,11 +1846,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1939,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1957,7 +1877,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1975,11 +1895,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -1992,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -2063,7 +1979,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2081,11 +1997,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2098,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2116,7 +2028,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2134,11 +2046,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2151,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2169,7 +2077,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2187,11 +2095,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2204,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
@@ -2222,7 +2126,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2240,11 +2144,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2257,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2434,7 +2334,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2452,11 +2352,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2469,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2487,7 +2383,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2505,11 +2401,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2522,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2540,7 +2432,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2558,11 +2450,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2575,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2593,7 +2481,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2611,11 +2499,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2628,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2646,7 +2530,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2664,11 +2548,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2681,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2699,7 +2579,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2717,11 +2597,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2734,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2805,7 +2681,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2823,11 +2699,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2840,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2858,7 +2730,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2876,11 +2748,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2893,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -2911,7 +2779,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2929,11 +2797,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -2946,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -3017,7 +2881,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -3035,11 +2899,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -3052,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
@@ -3176,7 +3036,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3194,11 +3054,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -3211,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3282,7 +3138,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -3300,11 +3156,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -3317,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
@@ -3335,7 +3187,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -3353,11 +3205,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
           <t>330</t>
@@ -3370,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
